--- a/downloaded_files/PBWS202_Lecture-35089.xlsx
+++ b/downloaded_files/PBWS202_Lecture-35089.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Ezz El Din Ahmed Farouk Ahmed Robashy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد طه حسين احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ALY AHMED TAHA HUSSEIN AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1200420</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4557006944</x:v>
+        <x:v>45925.3837605324</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4142003125</x:v>
+        <x:v>45906.4557006944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45906.4142003125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.8002357292</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4147381134</x:v>
+        <x:v>45906.8002357292</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45906.4147381134</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.414850544</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.7526256134</x:v>
+        <x:v>45906.414850544</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4582602662</x:v>
+        <x:v>45906.7526256134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.4582602662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146375347</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4146375347</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4143582176</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4150481481</x:v>
+        <x:v>45906.4143582176</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4150481481</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45906.4155979977</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PBWS202_Lecture-35089.xlsx
+++ b/downloaded_files/PBWS202_Lecture-35089.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Wael Ali Kotb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1125371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد حامد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Hamed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1200860</x:t>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -735,7 +744,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.290625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.240625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1424,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.8002357292</x:v>
+        <x:v>45928.4486361458</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4147381134</x:v>
+        <x:v>45906.8002357292</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45906.4147381134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.414850544</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.7526256134</x:v>
+        <x:v>45906.414850544</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4582602662</x:v>
+        <x:v>45906.7526256134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.4582602662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146375347</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4146375347</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4143582176</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4150481481</x:v>
+        <x:v>45906.4143582176</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4150481481</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1802,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45906.4155979977</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
